--- a/natmiOut/OldD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H2">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I2">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J2">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2860050641032</v>
+        <v>50.53837466666666</v>
       </c>
       <c r="N2">
-        <v>44.2860050641032</v>
+        <v>151.615124</v>
       </c>
       <c r="O2">
-        <v>0.06680328971788094</v>
+        <v>0.07152117312900876</v>
       </c>
       <c r="P2">
-        <v>0.06680328971788094</v>
+        <v>0.07335434150799851</v>
       </c>
       <c r="Q2">
-        <v>35.435137966741</v>
+        <v>40.91809181861866</v>
       </c>
       <c r="R2">
-        <v>35.435137966741</v>
+        <v>368.262826367568</v>
       </c>
       <c r="S2">
-        <v>0.02665798056821795</v>
+        <v>0.0241378158842788</v>
       </c>
       <c r="T2">
-        <v>0.02665798056821795</v>
+        <v>0.02954671798407215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H3">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I3">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J3">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>174.933630428412</v>
+        <v>192.2656683333333</v>
       </c>
       <c r="N3">
-        <v>174.933630428412</v>
+        <v>576.797005</v>
       </c>
       <c r="O3">
-        <v>0.2638788930723021</v>
+        <v>0.2720915787721727</v>
       </c>
       <c r="P3">
-        <v>0.2638788930723021</v>
+        <v>0.279065592991638</v>
       </c>
       <c r="Q3">
-        <v>139.971923868071</v>
+        <v>155.6667447720733</v>
       </c>
       <c r="R3">
-        <v>139.971923868071</v>
+        <v>1401.00070294866</v>
       </c>
       <c r="S3">
-        <v>0.1053013771266628</v>
+        <v>0.09182870113467992</v>
       </c>
       <c r="T3">
-        <v>0.1053013771266628</v>
+        <v>0.1124060581238086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H4">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I4">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J4">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>175.546256436593</v>
+        <v>194.1083576666666</v>
       </c>
       <c r="N4">
-        <v>175.546256436593</v>
+        <v>582.325073</v>
       </c>
       <c r="O4">
-        <v>0.2648030096787558</v>
+        <v>0.274699325928696</v>
       </c>
       <c r="P4">
-        <v>0.2648030096787558</v>
+        <v>0.2817401796506275</v>
       </c>
       <c r="Q4">
-        <v>140.4621122941999</v>
+        <v>157.1586671346707</v>
       </c>
       <c r="R4">
-        <v>140.4621122941999</v>
+        <v>1414.428004212036</v>
       </c>
       <c r="S4">
-        <v>0.1056701476264637</v>
+        <v>0.09270879465081075</v>
       </c>
       <c r="T4">
-        <v>0.1056701476264637</v>
+        <v>0.1134833666526911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H5">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I5">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J5">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>215.658527349191</v>
+        <v>216.7321216666667</v>
       </c>
       <c r="N5">
-        <v>215.658527349191</v>
+        <v>650.196365</v>
       </c>
       <c r="O5">
-        <v>0.3253104239541615</v>
+        <v>0.3067161478495851</v>
       </c>
       <c r="P5">
-        <v>0.3253104239541615</v>
+        <v>0.3145776288483546</v>
       </c>
       <c r="Q5">
-        <v>172.5576659999309</v>
+        <v>175.4758619146867</v>
       </c>
       <c r="R5">
-        <v>172.5576659999309</v>
+        <v>1579.28275723218</v>
       </c>
       <c r="S5">
-        <v>0.1298157470542586</v>
+        <v>0.1035142123881872</v>
       </c>
       <c r="T5">
-        <v>0.1298157470542586</v>
+        <v>0.1267101073038323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H6">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I6">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J6">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.5070808189088</v>
+        <v>52.9766425</v>
       </c>
       <c r="N6">
-        <v>52.5070808189088</v>
+        <v>105.953285</v>
       </c>
       <c r="O6">
-        <v>0.07920438357689973</v>
+        <v>0.0749717743205375</v>
       </c>
       <c r="P6">
-        <v>0.07920438357689973</v>
+        <v>0.05126225700138132</v>
       </c>
       <c r="Q6">
-        <v>42.01317437316087</v>
+        <v>42.89222074027</v>
       </c>
       <c r="R6">
-        <v>42.01317437316087</v>
+        <v>257.35332444162</v>
       </c>
       <c r="S6">
-        <v>0.03160666079810613</v>
+        <v>0.02530236580155933</v>
       </c>
       <c r="T6">
-        <v>0.03160666079810613</v>
+        <v>0.02064815005778066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H7">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I7">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J7">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.2860050641032</v>
+        <v>50.53837466666666</v>
       </c>
       <c r="N7">
-        <v>44.2860050641032</v>
+        <v>151.615124</v>
       </c>
       <c r="O7">
-        <v>0.06680328971788094</v>
+        <v>0.07152117312900876</v>
       </c>
       <c r="P7">
-        <v>0.06680328971788094</v>
+        <v>0.07335434150799851</v>
       </c>
       <c r="Q7">
-        <v>6.893248018330952</v>
+        <v>12.975828772416</v>
       </c>
       <c r="R7">
-        <v>6.893248018330952</v>
+        <v>116.782458951744</v>
       </c>
       <c r="S7">
-        <v>0.0051858150488097</v>
+        <v>0.007654515446196538</v>
       </c>
       <c r="T7">
-        <v>0.0051858150488097</v>
+        <v>0.009369771079445401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H8">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I8">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J8">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>174.933630428412</v>
+        <v>192.2656683333333</v>
       </c>
       <c r="N8">
-        <v>174.933630428412</v>
+        <v>576.797005</v>
       </c>
       <c r="O8">
-        <v>0.2638788930723021</v>
+        <v>0.2720915787721727</v>
       </c>
       <c r="P8">
-        <v>0.2638788930723021</v>
+        <v>0.279065592991638</v>
       </c>
       <c r="Q8">
-        <v>27.22893834168668</v>
+        <v>49.36459487592001</v>
       </c>
       <c r="R8">
-        <v>27.22893834168668</v>
+        <v>444.28135388328</v>
       </c>
       <c r="S8">
-        <v>0.02048442734686626</v>
+        <v>0.02912045624216488</v>
       </c>
       <c r="T8">
-        <v>0.02048442734686626</v>
+        <v>0.03564588910114089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H9">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I9">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J9">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>175.546256436593</v>
+        <v>194.1083576666666</v>
       </c>
       <c r="N9">
-        <v>175.546256436593</v>
+        <v>582.325073</v>
       </c>
       <c r="O9">
-        <v>0.2648030096787558</v>
+        <v>0.274699325928696</v>
       </c>
       <c r="P9">
-        <v>0.2648030096787558</v>
+        <v>0.2817401796506275</v>
       </c>
       <c r="Q9">
-        <v>27.32429539660186</v>
+        <v>49.837709047632</v>
       </c>
       <c r="R9">
-        <v>27.32429539660186</v>
+        <v>448.539381428688</v>
       </c>
       <c r="S9">
-        <v>0.02055616479909116</v>
+        <v>0.02939954899213106</v>
       </c>
       <c r="T9">
-        <v>0.02055616479909116</v>
+        <v>0.0359875221144253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H10">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I10">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J10">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>215.658527349191</v>
+        <v>216.7321216666667</v>
       </c>
       <c r="N10">
-        <v>215.658527349191</v>
+        <v>650.196365</v>
       </c>
       <c r="O10">
-        <v>0.3253104239541615</v>
+        <v>0.3067161478495851</v>
       </c>
       <c r="P10">
-        <v>0.3253104239541615</v>
+        <v>0.3145776288483546</v>
       </c>
       <c r="Q10">
-        <v>33.56788931704661</v>
+        <v>55.64640570216001</v>
       </c>
       <c r="R10">
-        <v>33.56788931704661</v>
+        <v>500.81765131944</v>
       </c>
       <c r="S10">
-        <v>0.02525324275496874</v>
+        <v>0.03282613229900035</v>
       </c>
       <c r="T10">
-        <v>0.02525324275496874</v>
+        <v>0.04018194844953283</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H11">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I11">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J11">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.5070808189088</v>
+        <v>52.9766425</v>
       </c>
       <c r="N11">
-        <v>52.5070808189088</v>
+        <v>105.953285</v>
       </c>
       <c r="O11">
-        <v>0.07920438357689973</v>
+        <v>0.0749717743205375</v>
       </c>
       <c r="P11">
-        <v>0.07920438357689973</v>
+        <v>0.05126225700138132</v>
       </c>
       <c r="Q11">
-        <v>8.172882839158291</v>
+        <v>13.60185891516</v>
       </c>
       <c r="R11">
-        <v>8.172882839158291</v>
+        <v>81.61115349096001</v>
       </c>
       <c r="S11">
-        <v>0.006148488884595181</v>
+        <v>0.008023814200169409</v>
       </c>
       <c r="T11">
-        <v>0.006148488884595181</v>
+        <v>0.006547882555339508</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H12">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I12">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J12">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2860050641032</v>
+        <v>50.53837466666666</v>
       </c>
       <c r="N12">
-        <v>44.2860050641032</v>
+        <v>151.615124</v>
       </c>
       <c r="O12">
-        <v>0.06680328971788094</v>
+        <v>0.07152117312900876</v>
       </c>
       <c r="P12">
-        <v>0.06680328971788094</v>
+        <v>0.07335434150799851</v>
       </c>
       <c r="Q12">
-        <v>46.46993021624876</v>
+        <v>8.379329904232888</v>
       </c>
       <c r="R12">
-        <v>46.46993021624876</v>
+        <v>75.41396913809599</v>
       </c>
       <c r="S12">
-        <v>0.03495949410085328</v>
+        <v>0.004943014531532298</v>
       </c>
       <c r="T12">
-        <v>0.03495949410085328</v>
+        <v>0.006050665770861195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H13">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I13">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J13">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>174.933630428412</v>
+        <v>192.2656683333333</v>
       </c>
       <c r="N13">
-        <v>174.933630428412</v>
+        <v>576.797005</v>
       </c>
       <c r="O13">
-        <v>0.2638788930723021</v>
+        <v>0.2720915787721727</v>
       </c>
       <c r="P13">
-        <v>0.2638788930723021</v>
+        <v>0.279065592991638</v>
       </c>
       <c r="Q13">
-        <v>183.5603276185457</v>
+        <v>31.87790416389111</v>
       </c>
       <c r="R13">
-        <v>183.5603276185457</v>
+        <v>286.90113747502</v>
       </c>
       <c r="S13">
-        <v>0.1380930885987731</v>
+        <v>0.01880495759419956</v>
       </c>
       <c r="T13">
-        <v>0.1380930885987731</v>
+        <v>0.02301885064506331</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1281,49 +1281,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H14">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I14">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J14">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>175.546256436593</v>
+        <v>194.1083576666666</v>
       </c>
       <c r="N14">
-        <v>175.546256436593</v>
+        <v>582.325073</v>
       </c>
       <c r="O14">
-        <v>0.2648030096787558</v>
+        <v>0.274699325928696</v>
       </c>
       <c r="P14">
-        <v>0.2648030096787558</v>
+        <v>0.2817401796506275</v>
       </c>
       <c r="Q14">
-        <v>184.2031647362225</v>
+        <v>32.18342451227689</v>
       </c>
       <c r="R14">
-        <v>184.2031647362225</v>
+        <v>289.650820610492</v>
       </c>
       <c r="S14">
-        <v>0.1385766972532009</v>
+        <v>0.01898518579132387</v>
       </c>
       <c r="T14">
-        <v>0.1385766972532009</v>
+        <v>0.02323946512562525</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H15">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I15">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J15">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>215.658527349191</v>
+        <v>216.7321216666667</v>
       </c>
       <c r="N15">
-        <v>215.658527349191</v>
+        <v>650.196365</v>
       </c>
       <c r="O15">
-        <v>0.3253104239541615</v>
+        <v>0.3067161478495851</v>
       </c>
       <c r="P15">
-        <v>0.3253104239541615</v>
+        <v>0.3145776288483546</v>
       </c>
       <c r="Q15">
-        <v>226.2935367945187</v>
+        <v>35.93447474849555</v>
       </c>
       <c r="R15">
-        <v>226.2935367945187</v>
+        <v>323.41027273646</v>
       </c>
       <c r="S15">
-        <v>0.1702414341449342</v>
+        <v>0.02119795173299781</v>
       </c>
       <c r="T15">
-        <v>0.1702414341449342</v>
+        <v>0.02594807685573553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1658013333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.497404</v>
+      </c>
+      <c r="I16">
+        <v>0.06911260421604337</v>
+      </c>
+      <c r="J16">
+        <v>0.08248544866565852</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>52.9766425</v>
+      </c>
+      <c r="N16">
+        <v>105.953285</v>
+      </c>
+      <c r="O16">
+        <v>0.0749717743205375</v>
+      </c>
+      <c r="P16">
+        <v>0.05126225700138132</v>
+      </c>
+      <c r="Q16">
+        <v>8.783597962023332</v>
+      </c>
+      <c r="R16">
+        <v>52.70158777214</v>
+      </c>
+      <c r="S16">
+        <v>0.005181494565989832</v>
+      </c>
+      <c r="T16">
+        <v>0.004228390268373233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.1668055</v>
+      </c>
+      <c r="H17">
+        <v>2.333611</v>
+      </c>
+      <c r="I17">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J17">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>50.53837466666666</v>
+      </c>
+      <c r="N17">
+        <v>151.615124</v>
+      </c>
+      <c r="O17">
+        <v>0.07152117312900876</v>
+      </c>
+      <c r="P17">
+        <v>0.07335434150799851</v>
+      </c>
+      <c r="Q17">
+        <v>58.96845352212733</v>
+      </c>
+      <c r="R17">
+        <v>353.810721132764</v>
+      </c>
+      <c r="S17">
+        <v>0.03478582726700113</v>
+      </c>
+      <c r="T17">
+        <v>0.02838718667361976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.1668055</v>
+      </c>
+      <c r="H18">
+        <v>2.333611</v>
+      </c>
+      <c r="I18">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J18">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>192.2656683333333</v>
+      </c>
+      <c r="N18">
+        <v>576.797005</v>
+      </c>
+      <c r="O18">
+        <v>0.2720915787721727</v>
+      </c>
+      <c r="P18">
+        <v>0.279065592991638</v>
+      </c>
+      <c r="Q18">
+        <v>224.3366392725092</v>
+      </c>
+      <c r="R18">
+        <v>1346.019835635055</v>
+      </c>
+      <c r="S18">
+        <v>0.1323374638011284</v>
+      </c>
+      <c r="T18">
+        <v>0.1079947951216252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.1668055</v>
+      </c>
+      <c r="H19">
+        <v>2.333611</v>
+      </c>
+      <c r="I19">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J19">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>194.1083576666666</v>
+      </c>
+      <c r="N19">
+        <v>582.325073</v>
+      </c>
+      <c r="O19">
+        <v>0.274699325928696</v>
+      </c>
+      <c r="P19">
+        <v>0.2817401796506275</v>
+      </c>
+      <c r="Q19">
+        <v>226.4866993214338</v>
+      </c>
+      <c r="R19">
+        <v>1358.920195928603</v>
+      </c>
+      <c r="S19">
+        <v>0.1336057964944304</v>
+      </c>
+      <c r="T19">
+        <v>0.1090298257578859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.04931411512473</v>
-      </c>
-      <c r="H16">
-        <v>1.04931411512473</v>
-      </c>
-      <c r="I16">
-        <v>0.5233199479919598</v>
-      </c>
-      <c r="J16">
-        <v>0.5233199479919598</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>52.5070808189088</v>
-      </c>
-      <c r="N16">
-        <v>52.5070808189088</v>
-      </c>
-      <c r="O16">
-        <v>0.07920438357689973</v>
-      </c>
-      <c r="P16">
-        <v>0.07920438357689973</v>
-      </c>
-      <c r="Q16">
-        <v>55.09642104727597</v>
-      </c>
-      <c r="R16">
-        <v>55.09642104727597</v>
-      </c>
-      <c r="S16">
-        <v>0.0414492338941984</v>
-      </c>
-      <c r="T16">
-        <v>0.0414492338941984</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.1668055</v>
+      </c>
+      <c r="H20">
+        <v>2.333611</v>
+      </c>
+      <c r="I20">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J20">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>216.7321216666667</v>
+      </c>
+      <c r="N20">
+        <v>650.196365</v>
+      </c>
+      <c r="O20">
+        <v>0.3067161478495851</v>
+      </c>
+      <c r="P20">
+        <v>0.3145776288483546</v>
+      </c>
+      <c r="Q20">
+        <v>252.8842315873359</v>
+      </c>
+      <c r="R20">
+        <v>1517.305389524015</v>
+      </c>
+      <c r="S20">
+        <v>0.1491778514293998</v>
+      </c>
+      <c r="T20">
+        <v>0.1217374962392539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.1668055</v>
+      </c>
+      <c r="H21">
+        <v>2.333611</v>
+      </c>
+      <c r="I21">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J21">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>52.9766425</v>
+      </c>
+      <c r="N21">
+        <v>105.953285</v>
+      </c>
+      <c r="O21">
+        <v>0.0749717743205375</v>
+      </c>
+      <c r="P21">
+        <v>0.05126225700138132</v>
+      </c>
+      <c r="Q21">
+        <v>61.81343784053376</v>
+      </c>
+      <c r="R21">
+        <v>247.253751362135</v>
+      </c>
+      <c r="S21">
+        <v>0.03646409975281894</v>
+      </c>
+      <c r="T21">
+        <v>0.01983783411988791</v>
       </c>
     </row>
   </sheetData>
